--- a/results/mp/tinybert/corona/confidence/210/0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,118 +40,115 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
@@ -163,13 +160,34 @@
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -527,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7333333333333333</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7142857142857143</v>
+        <v>0.189922480620155</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4285714285714285</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,169 +882,97 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.875</v>
       </c>
       <c r="L8">
+        <v>98</v>
+      </c>
+      <c r="M8">
+        <v>98</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>14</v>
       </c>
-      <c r="M8">
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L9">
+        <v>68</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>14</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3390557939914163</v>
-      </c>
-      <c r="C9">
-        <v>79</v>
-      </c>
-      <c r="D9">
-        <v>79</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>154</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L9">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>68</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K11">
-        <v>0.8214285714285714</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,45 +984,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>121</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8046875</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,45 +1010,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,21 +1036,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1164,21 +1062,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1190,21 +1088,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1221,16 +1119,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1242,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7586206896551724</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1273,16 +1171,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7058823529411765</v>
+        <v>0.71875</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1294,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6986301369863014</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1320,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6896551724137931</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1346,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.66</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1372,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6470588235294118</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1398,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.631578947368421</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1424,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.625</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1450,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1476,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5774647887323944</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L27">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1502,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.55</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1528,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5038759689922481</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="M29">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1554,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>64</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1580,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1606,47 +1504,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.449438202247191</v>
+      </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
+      <c r="M32">
+        <v>40</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>49</v>
-      </c>
-      <c r="K32">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="L32">
-        <v>68</v>
-      </c>
-      <c r="M32">
-        <v>68</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.3714285714285714</v>
+        <v>0.4135593220338983</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1658,33 +1556,319 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.3538461538461539</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L36">
+        <v>27</v>
+      </c>
+      <c r="M36">
+        <v>27</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>51</v>
       </c>
-      <c r="K34">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="L34">
-        <v>32</v>
-      </c>
-      <c r="M34">
-        <v>32</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>60</v>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.34375</v>
+      </c>
+      <c r="L37">
+        <v>22</v>
+      </c>
+      <c r="M37">
+        <v>22</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>0.3305439330543933</v>
+      </c>
+      <c r="L38">
+        <v>79</v>
+      </c>
+      <c r="M38">
+        <v>79</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39">
+        <v>0.0225</v>
+      </c>
+      <c r="L39">
+        <v>27</v>
+      </c>
+      <c r="M39">
+        <v>27</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.01105651105651106</v>
+      </c>
+      <c r="L40">
+        <v>27</v>
+      </c>
+      <c r="M40">
+        <v>30</v>
+      </c>
+      <c r="N40">
+        <v>0.9</v>
+      </c>
+      <c r="O40">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>0.008985398727068513</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <v>0.92</v>
+      </c>
+      <c r="O41">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.006605284227381905</v>
+      </c>
+      <c r="L42">
+        <v>33</v>
+      </c>
+      <c r="M42">
+        <v>33</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43">
+        <v>0.006437077566784679</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44">
+        <v>0.005777675063554426</v>
+      </c>
+      <c r="L44">
+        <v>25</v>
+      </c>
+      <c r="M44">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <v>0.96</v>
+      </c>
+      <c r="O44">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45">
+        <v>0.004648460197559558</v>
+      </c>
+      <c r="L45">
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <v>0.92</v>
+      </c>
+      <c r="O45">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>5139</v>
       </c>
     </row>
   </sheetData>
